--- a/biology/Histoire de la zoologie et de la botanique/Léon_Pervinquière/Léon_Pervinquière.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léon_Pervinquière/Léon_Pervinquière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Pervinqui%C3%A8re</t>
+          <t>Léon_Pervinquière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Pervinquière, né le 14 août 1873 à La Roche-sur-Yon en Vendée et mort le 11 mai 1913 dans la même ville, est un géologue et paléontologue français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Pervinqui%C3%A8re</t>
+          <t>Léon_Pervinquière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chef des travaux pratiques de géologie et chargé de conférences à l'université de Paris. Ses publications abordent également la géographie[1].
-L'ammonite Fagesia pervinquieri lui est dédiée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chef des travaux pratiques de géologie et chargé de conférences à l'université de Paris. Ses publications abordent également la géographie.
+L'ammonite Fagesia pervinquieri lui est dédiée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Pervinqui%C3%A8re</t>
+          <t>Léon_Pervinquière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude géologique de la Tunisie centrale : Thèse de doctorat, Paris, F.-R. de Rudeval, 1903, 359 p. (lire en ligne).
-Études de paléontologie tunisienne : I, Céphalopodes des terrains secondaires. Texte, Paris, F.-R. de Rudeval, 1907, V-438-[4] (lire en ligne).
+Études de paléontologie tunisienne : I, Céphalopodes des terrains secondaires. Texte, Paris, F.-R. de Rudeval, 1907, V-438- (lire en ligne).
 Études de paléontologie tunisienne : I, Céphalopodes des terrains secondaires. Atlas, Paris, F.-R. de Rudeval, 1907, XXVII p. de pl. (lire en ligne).
 Sur quelques ammonites du Crétacé algérien, Paris, Société géologique de France, 1910, 86 p. (lire en ligne).
 Études de paléontologie tunisienne : II, Gastropodes et lamellibranches des terrains crétacés. Texte, Paris, J. Lamarre, 1912, XIV-352 p. (lire en ligne).
